--- a/keywordlist.xlsx
+++ b/keywordlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\E115228\Liting\share of search\sos_local\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\sfls004.acc.master.epnet\home\Sync\Documents\repos\sos_local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94D1C46-AEAA-43D8-8658-9807D66F0711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A14F806-174F-403C-99A9-4A848A9269FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="83">
   <si>
     <t>keywords</t>
   </si>
@@ -34,6 +34,33 @@
     <t>flag</t>
   </si>
   <si>
+    <t>Elisa Viihde Viaplay</t>
+  </si>
+  <si>
+    <t>Cmore</t>
+  </si>
+  <si>
+    <t>Netflix</t>
+  </si>
+  <si>
+    <t>Disney plus</t>
+  </si>
+  <si>
+    <t>HBO max</t>
+  </si>
+  <si>
+    <t>HBO</t>
+  </si>
+  <si>
+    <t>Elisa</t>
+  </si>
+  <si>
+    <t>Telia</t>
+  </si>
+  <si>
+    <t>Disney +</t>
+  </si>
+  <si>
     <t>Elisa liittymä</t>
   </si>
   <si>
@@ -43,6 +70,9 @@
     <t>Elisa liittymätarjous</t>
   </si>
   <si>
+    <t>Saunalahti liittymätarjous</t>
+  </si>
+  <si>
     <t>DNA liittymä</t>
   </si>
   <si>
@@ -58,15 +88,24 @@
     <t>Telia liittymä</t>
   </si>
   <si>
+    <t>Telia liittymätarjous</t>
+  </si>
+  <si>
     <t>Sonera liittymä</t>
   </si>
   <si>
-    <t>Telia liittymätarjous</t>
-  </si>
-  <si>
     <t>Sonera liittymätarjous</t>
   </si>
   <si>
+    <t>DNA</t>
+  </si>
+  <si>
+    <t>Moi</t>
+  </si>
+  <si>
+    <t>Mobiililiittymät</t>
+  </si>
+  <si>
     <t>Elisa laajakaista</t>
   </si>
   <si>
@@ -97,6 +136,87 @@
     <t>Sonera nettiliittymä</t>
   </si>
   <si>
+    <t>Laajakaistaliittymät</t>
+  </si>
+  <si>
+    <t>Elisa 5G liittymä</t>
+  </si>
+  <si>
+    <t>Saunalahti 5G liittymä</t>
+  </si>
+  <si>
+    <t>Elisa 5G</t>
+  </si>
+  <si>
+    <t>Saunalahti 5G</t>
+  </si>
+  <si>
+    <t>DNA 5G liittymä</t>
+  </si>
+  <si>
+    <t>DNA 5G</t>
+  </si>
+  <si>
+    <t>Moi 5G liittymä</t>
+  </si>
+  <si>
+    <t>Moi 5G</t>
+  </si>
+  <si>
+    <t>Telia 5G liittymä</t>
+  </si>
+  <si>
+    <t>Telia 5G</t>
+  </si>
+  <si>
+    <t>Sonera 5G liittymä</t>
+  </si>
+  <si>
+    <t>Sonera 5G</t>
+  </si>
+  <si>
+    <t>5G</t>
+  </si>
+  <si>
+    <t>Elisa Viihde</t>
+  </si>
+  <si>
+    <t>DNA TV</t>
+  </si>
+  <si>
+    <t>Telia TV</t>
+  </si>
+  <si>
+    <t>Amazon Prime</t>
+  </si>
+  <si>
+    <t>Paramount plus</t>
+  </si>
+  <si>
+    <t>Discovery</t>
+  </si>
+  <si>
+    <t>Apple TV plus</t>
+  </si>
+  <si>
+    <t>Paramount</t>
+  </si>
+  <si>
+    <t>Apple TV</t>
+  </si>
+  <si>
+    <t>elisa yrityksille</t>
+  </si>
+  <si>
+    <t>telia yrityksille</t>
+  </si>
+  <si>
+    <t>dna yrityksille</t>
+  </si>
+  <si>
+    <t>Yritysasiakkaat</t>
+  </si>
+  <si>
     <t>Elisa mobiililaajakaista</t>
   </si>
   <si>
@@ -115,115 +235,40 @@
     <t>Moi mobiililaajakaista</t>
   </si>
   <si>
-    <t>Elisa 5G liittymä</t>
-  </si>
-  <si>
-    <t>Saunalahti 5G liittymä</t>
-  </si>
-  <si>
-    <t>Elisa 5G</t>
-  </si>
-  <si>
-    <t>Saunalahti 5G</t>
-  </si>
-  <si>
-    <t>DNA 5G liittymä</t>
-  </si>
-  <si>
-    <t>DNA 5G</t>
-  </si>
-  <si>
-    <t>Telia 5G liittymä</t>
-  </si>
-  <si>
-    <t>Sonera 5G liittymä</t>
-  </si>
-  <si>
-    <t>Telia 5G</t>
-  </si>
-  <si>
-    <t>Sonera 5G</t>
-  </si>
-  <si>
-    <t>Moi 5G liittymä</t>
-  </si>
-  <si>
-    <t>Moi 5G</t>
-  </si>
-  <si>
-    <t>Elisa Viihde</t>
-  </si>
-  <si>
-    <t>Elisa Viihde Viaplay</t>
-  </si>
-  <si>
-    <t>DNA TV</t>
-  </si>
-  <si>
-    <t>Telia TV</t>
-  </si>
-  <si>
-    <t>Cmore</t>
-  </si>
-  <si>
-    <t>Netflix</t>
-  </si>
-  <si>
-    <t>Amazon Prime</t>
-  </si>
-  <si>
-    <t>Disney plus</t>
-  </si>
-  <si>
-    <t>Paramount</t>
-  </si>
-  <si>
-    <t>HBO max</t>
-  </si>
-  <si>
-    <t>HBO</t>
-  </si>
-  <si>
-    <t>Discovery</t>
-  </si>
-  <si>
-    <t>Apple TV plus</t>
-  </si>
-  <si>
-    <t>Elisa</t>
-  </si>
-  <si>
-    <t>DNA</t>
-  </si>
-  <si>
-    <t>Moi</t>
-  </si>
-  <si>
-    <t>Telia</t>
-  </si>
-  <si>
-    <t>Disney +</t>
-  </si>
-  <si>
-    <t>Paramount plus</t>
-  </si>
-  <si>
-    <t>Apple TV</t>
-  </si>
-  <si>
-    <t>Mobiililiittymät</t>
-  </si>
-  <si>
-    <t>Laajakaistaliittymät</t>
-  </si>
-  <si>
     <t>Mobiililaajakaistaliittymät</t>
   </si>
   <si>
-    <t>5G</t>
-  </si>
-  <si>
-    <t>Viihdepalvelut</t>
+    <t>Viaplay</t>
+  </si>
+  <si>
+    <t>Ruutu+</t>
+  </si>
+  <si>
+    <t>Ruutu plus</t>
+  </si>
+  <si>
+    <t>EVV</t>
+  </si>
+  <si>
+    <t>Elisa Kirja</t>
+  </si>
+  <si>
+    <t>Supla</t>
+  </si>
+  <si>
+    <t>Bookbeat</t>
+  </si>
+  <si>
+    <t>Storytel</t>
+  </si>
+  <si>
+    <t>Nextory</t>
+  </si>
+  <si>
+    <t>Elisa Viihde Premium</t>
+  </si>
+  <si>
+    <t>EVP</t>
   </si>
 </sst>
 </file>
@@ -255,7 +300,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -278,14 +323,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -625,13 +705,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F12"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection sqref="A1:E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.36328125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.453125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.08984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
@@ -651,854 +737,1095 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" t="s">
-        <v>63</v>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" t="s">
-        <v>63</v>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" t="s">
-        <v>63</v>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" t="s">
-        <v>63</v>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" t="s">
-        <v>63</v>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" t="s">
-        <v>63</v>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" t="s">
-        <v>63</v>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" t="s">
-        <v>63</v>
+      <c r="B9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" t="s">
-        <v>63</v>
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" t="s">
-        <v>63</v>
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" t="s">
-        <v>63</v>
+      <c r="B12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" t="s">
-        <v>64</v>
+      <c r="B13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" t="s">
-        <v>64</v>
+      <c r="B14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" t="s">
-        <v>64</v>
+      <c r="B15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" t="s">
-        <v>64</v>
+      <c r="B16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" t="s">
-        <v>64</v>
+      <c r="B17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" t="s">
-        <v>64</v>
+      <c r="B18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" t="s">
-        <v>64</v>
+      <c r="B19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" t="s">
-        <v>64</v>
+      <c r="B20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" t="s">
-        <v>64</v>
+      <c r="B21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" t="s">
-        <v>64</v>
+      <c r="B22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" t="s">
-        <v>65</v>
+      <c r="B23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="B24" s="2" t="s">
         <v>65</v>
       </c>
+      <c r="C24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>71</v>
+      </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" t="s">
-        <v>65</v>
+      <c r="B25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26" t="s">
-        <v>65</v>
+      <c r="B26" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" t="s">
-        <v>65</v>
+      <c r="B27" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" t="s">
-        <v>58</v>
-      </c>
-      <c r="D28" t="s">
-        <v>65</v>
+      <c r="B28" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" t="s">
-        <v>56</v>
-      </c>
-      <c r="D29" t="s">
-        <v>66</v>
+      <c r="B29" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" t="s">
-        <v>56</v>
-      </c>
-      <c r="D30" t="s">
-        <v>66</v>
+      <c r="B30" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" t="s">
-        <v>56</v>
-      </c>
-      <c r="D31" t="s">
-        <v>66</v>
+      <c r="B31" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" t="s">
-        <v>56</v>
-      </c>
-      <c r="D32" t="s">
-        <v>66</v>
+      <c r="B32" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" t="s">
-        <v>57</v>
-      </c>
-      <c r="D33" t="s">
-        <v>66</v>
+      <c r="B33" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" t="s">
-        <v>57</v>
-      </c>
-      <c r="D34" t="s">
-        <v>66</v>
+      <c r="B34" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35" t="s">
-        <v>59</v>
-      </c>
-      <c r="D35" t="s">
-        <v>66</v>
+      <c r="B35" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36" t="s">
-        <v>59</v>
-      </c>
-      <c r="D36" t="s">
-        <v>66</v>
+      <c r="B36" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" t="s">
-        <v>59</v>
-      </c>
-      <c r="D37" t="s">
-        <v>66</v>
+      <c r="B37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" t="s">
-        <v>40</v>
-      </c>
-      <c r="C38" t="s">
-        <v>59</v>
-      </c>
-      <c r="D38" t="s">
-        <v>66</v>
+      <c r="B38" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" t="s">
-        <v>41</v>
-      </c>
-      <c r="C39" t="s">
-        <v>58</v>
-      </c>
-      <c r="D39" t="s">
-        <v>66</v>
+      <c r="B39" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" t="s">
-        <v>42</v>
-      </c>
-      <c r="C40" t="s">
-        <v>58</v>
-      </c>
-      <c r="D40" t="s">
-        <v>66</v>
+      <c r="B40" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" t="s">
-        <v>43</v>
-      </c>
-      <c r="C41" t="s">
-        <v>56</v>
-      </c>
-      <c r="D41" t="s">
-        <v>67</v>
+      <c r="B41" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" t="s">
-        <v>44</v>
-      </c>
-      <c r="C42" t="s">
-        <v>56</v>
-      </c>
-      <c r="D42" t="s">
-        <v>67</v>
+      <c r="B42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" t="s">
-        <v>45</v>
-      </c>
-      <c r="C43" t="s">
-        <v>57</v>
-      </c>
-      <c r="D43" t="s">
-        <v>67</v>
+      <c r="B43" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" t="s">
-        <v>46</v>
-      </c>
-      <c r="C44" t="s">
-        <v>59</v>
-      </c>
-      <c r="D44" t="s">
-        <v>67</v>
+      <c r="B44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" t="s">
-        <v>47</v>
-      </c>
-      <c r="C45" t="s">
-        <v>59</v>
-      </c>
-      <c r="D45" t="s">
-        <v>67</v>
+      <c r="B45" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" t="s">
-        <v>48</v>
-      </c>
-      <c r="C46" t="s">
-        <v>48</v>
-      </c>
-      <c r="D46" t="s">
-        <v>67</v>
+      <c r="B46" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" t="s">
-        <v>49</v>
-      </c>
-      <c r="C47" t="s">
-        <v>49</v>
-      </c>
-      <c r="D47" t="s">
-        <v>67</v>
+      <c r="B47" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" t="s">
-        <v>50</v>
-      </c>
-      <c r="C48" t="s">
-        <v>60</v>
-      </c>
-      <c r="D48" t="s">
-        <v>67</v>
+      <c r="B48" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" t="s">
-        <v>51</v>
-      </c>
-      <c r="C49" t="s">
-        <v>61</v>
-      </c>
-      <c r="D49" t="s">
-        <v>67</v>
+      <c r="B49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" t="s">
-        <v>52</v>
-      </c>
-      <c r="C50" t="s">
-        <v>53</v>
-      </c>
-      <c r="D50" t="s">
-        <v>67</v>
+      <c r="B50" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" t="s">
-        <v>53</v>
-      </c>
-      <c r="C51" t="s">
-        <v>53</v>
-      </c>
-      <c r="D51" t="s">
-        <v>67</v>
+      <c r="B51" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" t="s">
-        <v>54</v>
-      </c>
-      <c r="C52" t="s">
-        <v>54</v>
-      </c>
-      <c r="D52" t="s">
-        <v>67</v>
+      <c r="B52" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="C53" t="s">
+      <c r="B57" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="D53" t="s">
-        <v>67</v>
-      </c>
-      <c r="E53">
-        <v>1</v>
+      <c r="B64" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;10&amp;K000000For Internal Use Only</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>